--- a/biology/Zoologie/Gnaptorina/Gnaptorina.xlsx
+++ b/biology/Zoologie/Gnaptorina/Gnaptorina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gnaptorina est un genre de coléoptères de la famille des Tenebrionidae. Les espèces du genre Gnaptorina sont présentes au Tibet[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gnaptorina est un genre de coléoptères de la famille des Tenebrionidae. Les espèces du genre Gnaptorina sont présentes au Tibet.
 </t>
         </is>
       </c>
@@ -511,17 +523,19 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Gnaptorina est décrit en 1887 par l'entomologiste allemand  Edmund Reitter[1]. Il est créé pour l'espèce Gnaptorina felicitana[2].
-Il tient son nom du genre Gnaptor, de la même famille d'insectes, suivi du suffixe -ina[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Gnaptorina est décrit en 1887 par l'entomologiste allemand  Edmund Reitter. Il est créé pour l'espèce Gnaptorina felicitana.
+Il tient son nom du genre Gnaptor, de la même famille d'insectes, suivi du suffixe -ina.
 Sous-genres
-Le genre Gnaptorina est divisé en trois sous-genres en 2009 par l'entomologiste russe Medvedev[3]. Un quatrième sous-genre est décrit en 2020 par les entomologistes chinois Bai, Li et Ren[4].
+Le genre Gnaptorina est divisé en trois sous-genres en 2009 par l'entomologiste russe Medvedev. Un quatrième sous-genre est décrit en 2020 par les entomologistes chinois Bai, Li et Ren.
 Austroptorina Bai, Li &amp; Ren, 2020 (espèce type : Gnaptorina longicornis)
 Boreoptorina  Medvedev, 2009 (espèce type : Gnaptorina cordicollis)
 Gnaptorina Reitter, 1889 (espèce type : Gnaptorina felicitana)
 Hesperoptorina  Medvedev, 2009 (espèce type : Gnaptorina brucei)
-En 2021, les quatre chercheurs chinois Li, Bai, Zhao et Ren, et le chercheur français Kergoat publient un article présentant les résultats d'une étude phylogénétique et moléculaire effectuée sur 38 espèces et sous-espèces du genre Gnaptorina, soit 74% des espèces connues. Celles-ci sont plus finement redistribuées et certaines renommées ou synonymisées, tandis que le sous-genre Boreoptorina (qui ne contenait qu'une seule espèce) devient un synonyme d'Hesperoptorina. Il ne reste donc plus que trois sous-genres[5] :
+En 2021, les quatre chercheurs chinois Li, Bai, Zhao et Ren, et le chercheur français Kergoat publient un article présentant les résultats d'une étude phylogénétique et moléculaire effectuée sur 38 espèces et sous-espèces du genre Gnaptorina, soit 74% des espèces connues. Celles-ci sont plus finement redistribuées et certaines renommées ou synonymisées, tandis que le sous-genre Boreoptorina (qui ne contenait qu'une seule espèce) devient un synonyme d'Hesperoptorina. Il ne reste donc plus que trois sous-genres :
 Austroptorina Bai, Li &amp; Ren, 2020 (2 espèces)
 Gnaptorina Reitter, 1889 (15 espèces)
 Hesperoptorina  Medvedev, 2009 (11 espèces)</t>
@@ -552,9 +566,11 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'étude phylogénétique et moléculaire de 2021 montre que le genre Gnaptorina est apparu il y a à peu près 69,68 millions d'années. Le sous-genre Hesperoptorina aurait divergé du clade principal vers 55,89 millions d'années, tandis que les deux autres sous-genres Gnaptorina et Austroptorina se seraient distingués l'un de l'autre vers 47,81 millions d'années[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étude phylogénétique et moléculaire de 2021 montre que le genre Gnaptorina est apparu il y a à peu près 69,68 millions d'années. Le sous-genre Hesperoptorina aurait divergé du clade principal vers 55,89 millions d'années, tandis que les deux autres sous-genres Gnaptorina et Austroptorina se seraient distingués l'un de l'autre vers 47,81 millions d'années.
 </t>
         </is>
       </c>
@@ -583,9 +599,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa publication originale, Reitter indique que les premiers spécimens du genre ont été recueillis dans les vallées du fleuve Jaune et du fleuve Bleu autour de 4 000 m d'altitude[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa publication originale, Reitter indique que les premiers spécimens du genre ont été recueillis dans les vallées du fleuve Jaune et du fleuve Bleu autour de 4 000 m d'altitude.
 </t>
         </is>
       </c>
@@ -614,14 +632,16 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les espèces du genre Gnaptorina sont divisées en 3 sous-genres[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les espèces du genre Gnaptorina sont divisées en 3 sous-genres.
 Sous-genre Austroptorina
-Le sous-genre Austroptorina comprend deux espèces[4],[5] :
+Le sous-genre Austroptorina comprend deux espèces, :
 Gnaptorina longicornis Li &amp; Ren, 2004
 Gnaptorina polita Bai, Li &amp; Ren, 2020
-Sous-genre Gnaptorina[5]
+Sous-genre Gnaptorina
 Gnaptorina artipenis Bai, Li &amp; Ren, 2020
 Gnaptorina crenata Bai, Li &amp; Ren, 2020
 Gnaptorina dongdashanensis Shi, 2013
@@ -637,7 +657,7 @@
 Gnaptorina proxima Reitter, 1889
 Gnaptorina rufipes Li &amp; Ren, 2004
 Gnaptorina rugosipensis Medvedev, 1998
-Sous-genre Hesperoptorina[5]
+Sous-genre Hesperoptorina
 Gnaptorina ampliptera Bai, Li &amp; Ren, 2020
 Gnaptorina brucei Blair, 1923
 Gnaptorina compressa Shi, Ren &amp; Merkl, 2007
